--- a/biology/Botanique/Chrozophora_tinctoria/Chrozophora_tinctoria.xlsx
+++ b/biology/Botanique/Chrozophora_tinctoria/Chrozophora_tinctoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maurelle, appelée aussi tournesol des teinturiers ou croton des teinturiers (Crozophora tinctoria (L.) A.Juss.), est une espèce de plantes à fleurs de la famille des Euphorbiaceae. Elle est originaire du pourtour de la Méditerranée, du Moyen-Orient, d'Inde, du Pakistan et d'Asie Centrale. Elle a aussi été introduite en Amérique du Nord et en Australie.
 C'est une plante tinctoriale utilisée depuis le Moyen Âge pour fournir des colorations bleues ou violettes.
@@ -512,11 +524,13 @@
           <t>Utilisation de la maurelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chrozophora tinctoria, la maurelle, produit un colorant bleu-violet, le « tournesol » utilisé au Moyen Âge pour réaliser les manuscrits enluminés. La maurelle s’utilisait aussi comme colorant alimentaire.
-Cette plante aussi connue par sa dénomination de croton des teinturiers ou de tournesol des teinturiers[2] est la base de la teinture de tournesol désignant un réactif chimique à base de matière colorante bleue, en solution, qui a la propriété de virer au rouge en présence d'un acide. Elle a servi également à la fabrication du papier tournesol, premier indicateur acide-base qui aurait été découvert par Arnaud de Villeneuve[3].
-Un excellent chapitre dans l'Encyclopédie méthodique de Diderot traite de l'« art de la culture et de l'apprêt du tournesol » ; c'est une très bonne documentation sur la culture de la maurelle dans le village de Gallargues-le-Montueux (Grand-Gallargues) dans le département du Gard en 1760[4].
+Cette plante aussi connue par sa dénomination de croton des teinturiers ou de tournesol des teinturiers est la base de la teinture de tournesol désignant un réactif chimique à base de matière colorante bleue, en solution, qui a la propriété de virer au rouge en présence d'un acide. Elle a servi également à la fabrication du papier tournesol, premier indicateur acide-base qui aurait été découvert par Arnaud de Villeneuve.
+Un excellent chapitre dans l'Encyclopédie méthodique de Diderot traite de l'« art de la culture et de l'apprêt du tournesol » ; c'est une très bonne documentation sur la culture de la maurelle dans le village de Gallargues-le-Montueux (Grand-Gallargues) dans le département du Gard en 1760.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
